--- a/biology/Médecine/Ligament_costo-claviculaire/Ligament_costo-claviculaire.xlsx
+++ b/biology/Médecine/Ligament_costo-claviculaire/Ligament_costo-claviculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament costo-claviculaire (ou ligament rhomboïdal de Lauth ou ligament chondro-costo-claviculaire) est un ligament de l'articulation sterno-claviculaire. C'est une bande fibreuse courte formée en deux plans séparées par une bourse séreuse.
 </t>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le ligament costo-claviculaire a pour origine le quart médian de la face inférieure de la clavicule[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ligament costo-claviculaire a pour origine le quart médian de la face inférieure de la clavicule.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament costo-claviculaire a un trajet vertical et court.
 </t>
@@ -573,9 +589,11 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le ligament costo-claviculaire se termine sur l'extrémité antérieur de la face supérieur de la première côte, à la jonction entre l'os et le cartilage. Il encadre le muscle subclavier[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ligament costo-claviculaire se termine sur l'extrémité antérieur de la face supérieur de la première côte, à la jonction entre l'os et le cartilage. Il encadre le muscle subclavier.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Biomécanique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le ligament costo-claviculaire est fort et assure la stabilité de l'articulation sterno-costo-claviculaire. En encadrant à sa terminaison le muscle subclavier, le ligament costo-claviculaire renforce celui-ci[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ligament costo-claviculaire est fort et assure la stabilité de l'articulation sterno-costo-claviculaire. En encadrant à sa terminaison le muscle subclavier, le ligament costo-claviculaire renforce celui-ci.
 </t>
         </is>
       </c>
